--- a/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>12.60940708839778</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>23.73006972483532</v>
+        <v>23.73006972483536</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.95620567194978</v>
+        <v>8.698483615256579</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.02340976455827</v>
+        <v>16.46886364674809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31.55539636960038</v>
+        <v>31.14841181644977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.92799186243976</v>
+        <v>-3.376502115040129</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4716527633506128</v>
+        <v>-0.7971093439583357</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.185271518499234</v>
+        <v>6.352620414464015</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.353561348863776</v>
+        <v>3.209242177194912</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.973706481206948</v>
+        <v>8.789261361670942</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>20.07678855871425</v>
+        <v>20.30890966182934</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.94672101731329</v>
+        <v>19.32148064319182</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.56822381991411</v>
+        <v>26.7665324057583</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41.58720151380545</v>
+        <v>41.57062841992355</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.729123212320582</v>
+        <v>4.195264017264434</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.683777579180913</v>
+        <v>6.88905655734734</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.7345438576637</v>
+        <v>12.88047684620237</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.23280655404945</v>
+        <v>10.78827908451327</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.51998040756966</v>
+        <v>15.97612707009348</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>27.43841170232559</v>
+        <v>27.12403447269361</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2303865957043161</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.433572327501526</v>
+        <v>0.4335723275015266</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3147995818409851</v>
+        <v>0.3068310573876853</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5937023577009533</v>
+        <v>0.5737125802801077</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.103876443922809</v>
+        <v>1.091446821789003</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03447184453715933</v>
+        <v>-0.03933998028889188</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.00531967851838619</v>
+        <v>-0.009434077595088837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07206737044503365</v>
+        <v>0.07447201210572507</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05977472967721928</v>
+        <v>0.05527434481538063</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1573277598905805</v>
+        <v>0.1561863438231623</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3560060557958545</v>
+        <v>0.3550485980590497</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7926140258426533</v>
+        <v>0.8221335910027827</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.167719929789401</v>
+        <v>1.141685742354586</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.780397313157437</v>
+        <v>1.783748259647232</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.05782201371853939</v>
+        <v>0.05171998614824617</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08180268038052445</v>
+        <v>0.08416384795681756</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1566806024068068</v>
+        <v>0.1603689543299979</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2104735997690712</v>
+        <v>0.2035783534741519</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3140615165452632</v>
+        <v>0.3027798593721783</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5267139733406974</v>
+        <v>0.5171258541397268</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>19.91462426020376</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33.60377803592963</v>
+        <v>33.60377803592964</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-3.419574718145824</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.218744406815987</v>
+        <v>6.020504476055173</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.59435362581677</v>
+        <v>15.57651551554894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28.96074902972273</v>
+        <v>28.72222376839209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.588933289048832</v>
+        <v>-6.611851006437202</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4526713998721493</v>
+        <v>0.01812405384051482</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.150188032933083</v>
+        <v>3.00373912898827</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2983697657382239</v>
+        <v>0.437637926124224</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.46326994257825</v>
+        <v>8.729130051774426</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.69652290983069</v>
+        <v>17.00705987771896</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.36656877673081</v>
+        <v>15.10593516056373</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.15926566350468</v>
+        <v>24.37337660561556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37.75024807996007</v>
+        <v>38.03549571546773</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08845644329556916</v>
+        <v>0.07838985924616727</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.356298795137803</v>
+        <v>6.044102511519512</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.760138723751398</v>
+        <v>8.869704752997459</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.728834594908376</v>
+        <v>7.099277832990536</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.76464359517739</v>
+        <v>14.98847660246873</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>22.78240317387733</v>
+        <v>22.81740188507471</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6340973820115132</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.069970861607456</v>
+        <v>1.069970861607457</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.03977845707377623</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1791525540155196</v>
+        <v>0.1859014410123005</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4644899921091885</v>
+        <v>0.4650016552866332</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8583564980007589</v>
+        <v>0.843133676654336</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07577504132129623</v>
+        <v>-0.07582254552885299</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.005072597654426222</v>
+        <v>0.0002913090788801426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03593467148924584</v>
+        <v>0.03447357520016649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005462594846830001</v>
+        <v>0.006540730597535275</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1384834045438015</v>
+        <v>0.1432419367305709</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2758688522666669</v>
+        <v>0.2810390390411489</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5230427269738296</v>
+        <v>0.5179620194784805</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.854824800004512</v>
+        <v>0.8447821288443008</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.308682000887483</v>
+        <v>1.30905672240926</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.0008175702136483622</v>
+        <v>0.0004581600098112089</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07593558244747728</v>
+        <v>0.07188788242074179</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1038178404093144</v>
+        <v>0.1054451231537327</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1184220386934525</v>
+        <v>0.1241503704595759</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2563267782822182</v>
+        <v>0.2612069770152698</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4002361720564492</v>
+        <v>0.3998595102443461</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>7.26315979074924</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>15.89973076047069</v>
+        <v>15.8997307604707</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.360120383866237</v>
+        <v>-1.55080265739125</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.937966854663184</v>
+        <v>7.019309076254114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22.58245103851003</v>
+        <v>22.84887808660309</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.514560964772763</v>
+        <v>-5.659966463146162</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.310919390580325</v>
+        <v>-2.187639440704557</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3214702397299816</v>
+        <v>0.03265387214918232</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.499701275640914</v>
+        <v>-2.460563137682271</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.778516946060936</v>
+        <v>3.318985643138449</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>11.95373170403059</v>
+        <v>12.52333802238837</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.064722799184059</v>
+        <v>9.75145739344017</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.6332904366739</v>
+        <v>18.28014230134923</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33.53321540081951</v>
+        <v>33.5452464344003</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.893051251683497</v>
+        <v>1.519131864756406</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.520477514386214</v>
+        <v>4.444176089102126</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.857077963284159</v>
+        <v>7.025960936341466</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.901298604820778</v>
+        <v>5.119255760263373</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.04143470911142</v>
+        <v>10.87479362544528</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19.08699606555232</v>
+        <v>19.53290154607371</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1147151769199587</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.251122167171673</v>
+        <v>0.2511221671716731</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03548907047117564</v>
+        <v>-0.03607585739739635</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1575480412406046</v>
+        <v>0.1690525223520068</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5278486950901915</v>
+        <v>0.5374074796636888</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.06207532986635647</v>
+        <v>-0.06381123142166807</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02573169884261429</v>
+        <v>-0.02469777624774866</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003576917558731861</v>
+        <v>0.0004517950195497553</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03900572383588656</v>
+        <v>-0.03752404244805119</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05755237721391639</v>
+        <v>0.05088040032876841</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1828923179858761</v>
+        <v>0.1907977076748778</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2459004600897484</v>
+        <v>0.2632333029693368</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4786255990806841</v>
+        <v>0.5079728679287625</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9156517050566096</v>
+        <v>0.9161943101629604</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.02231311720450811</v>
+        <v>0.01819823098077849</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05268270056657975</v>
+        <v>0.05229037433355265</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0803264877032431</v>
+        <v>0.08231613921266792</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07817021233010525</v>
+        <v>0.084405667722717</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1809102252155965</v>
+        <v>0.1779710043283244</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.31203873724217</v>
+        <v>0.318158060010708</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>20.37832313884212</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26.93527334589111</v>
+        <v>26.93527334589113</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.190703405241257</v>
@@ -1306,7 +1306,7 @@
         <v>12.21608736551719</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>16.61191950376531</v>
+        <v>16.6119195037653</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.512175573765216</v>
+        <v>4.268626015258404</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>15.81553402096228</v>
+        <v>16.08829293322042</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22.24223409406125</v>
+        <v>22.48816554341749</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.416597323337257</v>
+        <v>-0.8482710578649512</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.537676063789827</v>
+        <v>1.274220490568919</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.579247895245496</v>
+        <v>3.697518036755396</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.498277792755768</v>
+        <v>2.284967740622743</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.337633252719804</v>
+        <v>9.020508355381134</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>13.65472555296046</v>
+        <v>13.75209116527647</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.35913255469585</v>
+        <v>13.22935302241003</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.18903623601871</v>
+        <v>24.72279822378737</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31.31429385032468</v>
+        <v>31.3322355445224</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.564581133893229</v>
+        <v>6.035437203469122</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.351518446750918</v>
+        <v>7.912001484597313</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.20300211372118</v>
+        <v>10.02519064948126</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.405422873405238</v>
+        <v>8.26109028689393</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>15.49236704463325</v>
+        <v>15.15637477682574</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>19.21578327153258</v>
+        <v>19.2554150100406</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.5181519457570167</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6848730486105927</v>
+        <v>0.6848730486105933</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.02720075715632652</v>
@@ -1411,7 +1411,7 @@
         <v>0.2004416035459949</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2725684324025573</v>
+        <v>0.2725684324025571</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1080964252258124</v>
+        <v>0.1030951158465614</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3793182852551048</v>
+        <v>0.3825917530621816</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5320705131256603</v>
+        <v>0.5421323409780903</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01655515463335307</v>
+        <v>-0.01044972297298569</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01822698707739435</v>
+        <v>0.0159490496298009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04382250633381242</v>
+        <v>0.04520326943077464</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04028564661450861</v>
+        <v>0.03712734022204774</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1520503607511464</v>
+        <v>0.1438713533777255</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2179378362098171</v>
+        <v>0.218079168478314</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3552923074797977</v>
+        <v>0.3555530605495169</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6483873121256555</v>
+        <v>0.6674874672122103</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8424578530761963</v>
+        <v>0.857747472672844</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.07149860655088841</v>
+        <v>0.0749151193212734</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1066053079248739</v>
+        <v>0.1007475216588784</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1304116610356726</v>
+        <v>0.127576816678882</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1424916837657336</v>
+        <v>0.1393506366942026</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2637432651438351</v>
+        <v>0.2564282256105914</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3264111154011264</v>
+        <v>0.3257666125714542</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>11.13106821602018</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>18.9014177729871</v>
+        <v>18.90141777298708</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.923339378267102</v>
+        <v>7.244816634515519</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>16.53347087511101</v>
+        <v>16.63562504903612</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28.68676789221248</v>
+        <v>28.6035281263813</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.463600194393381</v>
+        <v>-2.301023496079367</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.480082312816258</v>
+        <v>1.805700156798323</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.816625230533678</v>
+        <v>4.952467914616341</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.668432246621061</v>
+        <v>2.7005716222565</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.490544770404858</v>
+        <v>9.43639416803315</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17.35209809089899</v>
+        <v>17.35237320753229</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.79425386976589</v>
+        <v>11.5968055832225</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.27463633457747</v>
+        <v>21.45145918984147</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33.64170206653367</v>
+        <v>33.71570525806518</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.135930211450886</v>
+        <v>1.299986576389043</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.88131737486777</v>
+        <v>5.14469247087416</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.099425163295146</v>
+        <v>8.126360012146565</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.0471341317345</v>
+        <v>6.144421446309716</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.70614815424781</v>
+        <v>12.68110537700703</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.67968877006384</v>
+        <v>20.58086896518673</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1870441936432507</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3176155583140099</v>
+        <v>0.3176155583140097</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1935094517507983</v>
+        <v>0.2003687668860519</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4686421759527538</v>
+        <v>0.4647165203599789</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8101798836531756</v>
+        <v>0.8059953756296536</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02904392561529426</v>
+        <v>-0.02711095134106173</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01732320228370395</v>
+        <v>0.02156327031077148</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05641967197678736</v>
+        <v>0.05849650606630519</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04403498519298381</v>
+        <v>0.04529924766603922</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1579770928396938</v>
+        <v>0.1563269617089053</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2862969607251072</v>
+        <v>0.2860144034703844</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3550766035293803</v>
+        <v>0.3447118947413589</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6452114692014831</v>
+        <v>0.6468100529192412</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.021829009472748</v>
+        <v>1.021793836840215</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01366169804375661</v>
+        <v>0.01563805715229594</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0585803402610729</v>
+        <v>0.06271755413361396</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09722897713552871</v>
+        <v>0.09794392259967764</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1032656912445741</v>
+        <v>0.1045035145999461</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2173844331054474</v>
+        <v>0.2167051935113538</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3530588232136407</v>
+        <v>0.3519892333729826</v>
       </c>
     </row>
     <row r="34">
